--- a/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_04.xlsx
+++ b/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_04.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_DSAIML_Gen\01 Tableau And Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F55891-E188-4AD5-A336-87345FD87DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B0DF5-0F0C-4569-8810-0B2DDF6B6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Meet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -79,13 +81,136 @@
   </si>
   <si>
     <t>Contact Details</t>
+  </si>
+  <si>
+    <t>Test - 1</t>
+  </si>
+  <si>
+    <t>Test - 2</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Exam Date</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Exam Day</t>
+  </si>
+  <si>
+    <t>Internal Marks</t>
+  </si>
+  <si>
+    <t>External Marks</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Data Scince</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Data Analytics</t>
+  </si>
+  <si>
+    <t>Sr.No.</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Test -1 Marks</t>
+  </si>
+  <si>
+    <t>Test - 2 Marks</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Advanced SQL</t>
+  </si>
+  <si>
+    <t>Core Python</t>
+  </si>
+  <si>
+    <t>Python Libraries</t>
+  </si>
+  <si>
+    <t>Probability &amp; Statistics</t>
+  </si>
+  <si>
+    <t>Hypothesis Testing</t>
+  </si>
+  <si>
+    <t>Avg Makrks Per Subject</t>
+  </si>
+  <si>
+    <t>Rounded Off Avg</t>
+  </si>
+  <si>
+    <t>Truncated Avg</t>
+  </si>
+  <si>
+    <t>Rounded Down Avg</t>
+  </si>
+  <si>
+    <t>Rounded Up Avg</t>
+  </si>
+  <si>
+    <t>Meet Siddhapara</t>
+  </si>
+  <si>
+    <t>Part-2</t>
+  </si>
+  <si>
+    <t>Same as truncate</t>
+  </si>
+  <si>
+    <t>Rounded to nearest integer</t>
+  </si>
+  <si>
+    <t>Rounded to nearest ten</t>
+  </si>
+  <si>
+    <t>Rounded to nearest hundred</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +236,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,24 +314,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -212,11 +334,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,130 +632,565 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="15.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="22.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="7"/>
+      <c r="M1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>9999999999</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="F3" s="12">
+        <v>45671</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6">
+        <v>24</v>
+      </c>
+      <c r="I3" s="6">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1">
+        <f>H3+I3</f>
+        <v>43</v>
+      </c>
+      <c r="K3" s="1">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1">
+        <f>K3+L3</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>8888888888</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="F4" s="12">
+        <v>45672</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J22" si="0">H4+I4</f>
+        <v>41</v>
+      </c>
+      <c r="K4" s="1">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1">
+        <v>23</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M22" si="1">K4+L4</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>9898989898</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="12">
+        <v>45673</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K5" s="1">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>7777777777</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12">
+        <v>45674</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>45675</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12">
+        <v>45676</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12">
+        <v>45677</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="F10" s="12">
+        <v>45678</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45679</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12">
+        <v>45680</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12">
+        <v>45681</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="12">
+        <v>45682</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="F15" s="12">
+        <v>45683</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="F16" s="12">
+        <v>45684</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="12">
+        <v>45685</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="12">
+        <v>45686</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="F19" s="12">
+        <v>45687</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="F20" s="12">
+        <v>45688</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12">
+        <v>45689</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12">
+        <v>45690</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -629,4 +1198,231 @@
     <oddHeader>&amp;L&amp;P of &amp;N&amp;CRoyal Advanced Excel Batch&amp;R&amp;D</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B457DC60-BFA6-4B57-84DC-A1A382D914D6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3CB8B1-847D-4B24-A4F3-0EA24DE9471C}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>88</v>
+      </c>
+      <c r="D13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_04.xlsx
+++ b/2025_DSAIML_Gen/01 Tableau And Excel/2026_01_04.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\2025_DSAIML_Gen\01 Tableau And Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B0DF5-0F0C-4569-8810-0B2DDF6B6C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EE9EDA-C4D1-4D3A-8FC2-A9443B76338C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Meet" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Meet Siddhapara" sheetId="3" r:id="rId3"/>
+    <sheet name="Vishwa Panchal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>Rounded to nearest hundred</t>
+  </si>
+  <si>
+    <t>Vishwa Panchal</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
   </si>
 </sst>
 </file>
@@ -208,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -334,8 +341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,14 +356,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,40 +656,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="10" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="10" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,22 +702,22 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="9"/>
       <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="11"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -728,10 +735,10 @@
       <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="7">
         <v>45671</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="6">
@@ -771,10 +778,10 @@
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="7">
         <v>45672</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="6">
@@ -812,10 +819,10 @@
         <v>9898989898</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="12">
+      <c r="F5" s="7">
         <v>45673</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3">
@@ -853,10 +860,10 @@
         <v>7777777777</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="12">
+      <c r="F6" s="7">
         <v>45674</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="3">
@@ -878,10 +885,10 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>45675</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1">
@@ -897,10 +904,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>45676</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J8" s="1">
@@ -916,10 +923,10 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="7">
         <v>45677</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J9" s="1">
@@ -935,10 +942,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="7">
         <v>45678</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1">
@@ -954,10 +961,10 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="7">
         <v>45679</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1">
@@ -973,10 +980,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="7">
         <v>45680</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J12" s="1">
@@ -992,10 +999,10 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="7">
         <v>45681</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="1">
@@ -1011,10 +1018,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>45682</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J14" s="1">
@@ -1030,10 +1037,10 @@
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>45683</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J15" s="1">
@@ -1049,10 +1056,10 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>45684</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="1">
@@ -1068,10 +1075,10 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="7">
         <v>45685</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="1">
@@ -1087,10 +1094,10 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="7">
         <v>45686</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="1">
@@ -1106,10 +1113,10 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="7">
         <v>45687</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J19" s="1">
@@ -1125,10 +1132,10 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="7">
         <v>45688</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="1">
@@ -1144,10 +1151,10 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="7">
         <v>45689</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J21" s="1">
@@ -1163,10 +1170,10 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="7">
         <v>45690</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="1">
@@ -1180,15 +1187,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1202,14 +1209,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B457DC60-BFA6-4B57-84DC-A1A382D914D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Meet Siddhapara'!B1</f>
+        <v>Meet Siddhapara</v>
+      </c>
+      <c r="C2">
+        <f>'Meet Siddhapara'!E15</f>
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'Vishwa Panchal'!B1</f>
+        <v>Vishwa Panchal</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1218,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3CB8B1-847D-4B24-A4F3-0EA24DE9471C}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1284,6 +1364,10 @@
       <c r="D6">
         <v>95</v>
       </c>
+      <c r="E6">
+        <f>C6+D6</f>
+        <v>175</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1298,6 +1382,10 @@
       <c r="D7">
         <v>97</v>
       </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E13" si="0">C7+D7</f>
+        <v>197</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1312,6 +1400,10 @@
       <c r="D8">
         <v>90</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1326,6 +1418,10 @@
       <c r="D9">
         <v>88</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1340,6 +1436,10 @@
       <c r="D10">
         <v>85</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1359,6 +1459,10 @@
       <c r="C12">
         <v>84</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1373,16 +1477,44 @@
       <c r="D13">
         <v>86</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
+      <c r="C15">
+        <f>SUM(C6:C13)</f>
+        <v>600</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:E15" si="1">SUM(D6:D13)</f>
+        <v>541</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1141</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>46</v>
       </c>
+      <c r="C16">
+        <f>AVERAGE(C6:C13)</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:E16" si="2">AVERAGE(D6:D13)</f>
+        <v>90.166666666666671</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -1420,6 +1552,48 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67D9DCC-058F-4152-A454-9E336C796108}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
